--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4387.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4387.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Shreyas Santosh Iyer</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Leg Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4130</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4133</t>
+          <t>4133</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -752,7 +817,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4135</t>
+          <t>4135</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +864,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>08/08/2019</t>
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4359</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -964,7 +1027,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1016,7 +1079,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1068,7 +1131,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1120,7 +1183,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1172,7 +1235,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1224,7 +1287,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1276,7 +1339,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1328,7 +1391,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1380,7 +1443,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1432,7 +1495,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1484,7 +1547,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1536,7 +1599,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1588,7 +1651,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1640,7 +1703,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4524</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1692,7 +1755,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4526</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1744,7 +1807,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4529</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1796,7 +1859,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4536</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1836,7 +1899,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>12/07/2022</t>
@@ -1844,7 +1906,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1896,7 +1958,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4621</t>
+          <t>4621</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1948,7 +2010,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4623</t>
+          <t>4623</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2000,7 +2062,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4624</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2052,7 +2114,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4656</t>
+          <t>4656</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2104,7 +2166,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4657</t>
+          <t>4657</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2156,7 +2218,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4658</t>
+          <t>4658</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2208,7 +2270,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4669</t>
+          <t>4669</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2248,7 +2310,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>27/11/2022</t>
@@ -2256,7 +2317,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4673</t>
+          <t>4673</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2308,7 +2369,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4676</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2360,7 +2421,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4679</t>
+          <t>4679</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2412,7 +2473,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4682</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2464,7 +2525,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2516,7 +2577,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4687</t>
+          <t>4687</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2568,7 +2629,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4689</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2620,7 +2681,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4691</t>
+          <t>4691</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2659,7 +2720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2681,7 +2742,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2718,7 +2779,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2755,7 +2816,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2792,7 +2853,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4526</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2829,7 +2890,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4529</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2866,7 +2927,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4691</t>
+          <t>4691</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2892,6 +2953,547 @@
       <c r="G6" t="inlineStr">
         <is>
           <t>0/2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3.83%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>9.19%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30.19%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>17.53%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>19.56%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>40.07%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4658</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.67%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.14%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.37%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>12.90%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.83%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>12.79%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4387.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4387.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -876,7 +876,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4387.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4387.xlsx
@@ -2967,7 +2967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3010,13 +3010,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4524</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+          <t>4096</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8.04%</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3026,27 +3040,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.83%</t>
-        </is>
-      </c>
+          <t>4098</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3056,25 +3056,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4529</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.19%</t>
+          <t>29.68%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3086,15 +3086,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4536</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3104,27 +3104,39 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>30.19%</t>
+          <t>6.23%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4609</t>
+          <t>4133</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10.95%</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3134,27 +3146,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4621</t>
+          <t>4135</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>17.53%</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3164,7 +3164,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4623</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -3180,15 +3180,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4624</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>19.56%</t>
+          <t>25.45%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3210,7 +3210,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4656</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -3226,37 +3226,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4657</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>40.07%</t>
-        </is>
-      </c>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4658</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -3269,12 +3255,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>26.67%</t>
+          <t>13.70%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -3286,25 +3272,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4669</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>26.14%</t>
+          <t>2.22%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -3316,13 +3302,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4673</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.57%</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3332,15 +3332,15 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4676</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>22.37%</t>
+          <t>2.06%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3362,7 +3362,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4679</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -3370,17 +3370,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12.90%</t>
+          <t>15.22%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3392,27 +3392,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4682</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>30.83%</t>
-        </is>
-      </c>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3422,7 +3408,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4685</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -3438,13 +3424,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4687</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.95%</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3454,27 +3454,13 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4689</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>12.79%</t>
-        </is>
-      </c>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3484,7 +3470,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4691</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -3497,6 +3483,556 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>6.29%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1.89%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3.83%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>9.19%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>30.19%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>17.53%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>19.56%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>40.07%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4658</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>4</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26.67%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>26.14%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>22.37%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>12.90%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>30.83%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>12.79%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
